--- a/lab_details.xlsx
+++ b/lab_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\CSC_devOps_01_12_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EDF1A0-0D02-4960-A411-810ECD964DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D342DDAC-AC63-46EC-ACDF-70B2807B1CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E44BA938-B2EB-49E3-AFE0-15AD9669B7AD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="106">
   <si>
     <t>Alfred Arputharaj</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>98.93.218.93</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>ubuntu</t>
   </si>
 </sst>
 </file>
@@ -745,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F8D908-FE4E-42A1-8B96-6777A82CC1A2}">
-  <dimension ref="B2:G21"/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +765,7 @@
     <col min="5" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -772,8 +778,11 @@
       <c r="G2" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -792,8 +801,11 @@
       <c r="G3" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -812,8 +824,11 @@
       <c r="G4" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -832,8 +847,11 @@
       <c r="G5" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -852,8 +870,11 @@
       <c r="G6" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -872,8 +893,11 @@
       <c r="G7" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -892,8 +916,11 @@
       <c r="G8" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -912,8 +939,11 @@
       <c r="G9" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -932,8 +962,11 @@
       <c r="G10" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -952,8 +985,11 @@
       <c r="G11" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -972,8 +1008,11 @@
       <c r="G12" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -992,8 +1031,11 @@
       <c r="G13" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1012,8 +1054,11 @@
       <c r="G14" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1032,8 +1077,11 @@
       <c r="G15" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1052,8 +1100,11 @@
       <c r="G16" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1072,8 +1123,11 @@
       <c r="G17" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1092,8 +1146,11 @@
       <c r="G18" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1112,8 +1169,11 @@
       <c r="G19" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1132,8 +1192,11 @@
       <c r="G20" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -1151,6 +1214,9 @@
       </c>
       <c r="G21" s="1" t="s">
         <v>100</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
